--- a/external/PerfConvert.xlsx
+++ b/external/PerfConvert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walte\Desktop\Coding\Filling SIMD gaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3B6886-9F19-47A7-B86E-5655146C4526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943DA0AB-3AA3-4998-AA28-E3DEE34174D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{9AD7A910-721C-4D20-B2C5-713053ED084B}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{9AD7A910-721C-4D20-B2C5-713053ED084B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -175,23 +175,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Core M-5Y70
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Broadwell)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">i5-4570
 </t>
     </r>
@@ -251,6 +234,23 @@
   </si>
   <si>
     <t>scaleBranch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i3-N305
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Alder L.-N)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -429,19 +429,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -575,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -594,11 +581,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -606,19 +590,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -626,25 +604,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -653,13 +613,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -674,7 +640,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,440 +993,511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0687B78F-8D59-485F-B3CC-BEB04FF791AB}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37:G37"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="7" width="15.42578125" customWidth="1"/>
+    <col min="3" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="22" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="17" t="s">
+    <row r="1" spans="1:8" s="19" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="G1" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
       <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>1.27</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>1.7</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>5.58</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="F3" s="15">
+        <v>2.82</v>
+      </c>
+      <c r="G3" s="15">
+        <v>2.27</v>
+      </c>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>1.05</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>1.44</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>5.42</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="35"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="27" t="s">
+      <c r="F4" s="15">
+        <v>2.25</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1.83</v>
+      </c>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>0.87</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>1.21</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>4.83</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="F5" s="15">
+        <v>1.97</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1.67</v>
+      </c>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>1.07</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>1.53</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>5.08</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="F6" s="15">
+        <v>2.25</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1.83</v>
+      </c>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>1.07</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>1.47</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>5.88</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="F7" s="15">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1.69</v>
+      </c>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="35"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>1.04</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>1.47</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>4.59</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="35"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="27" t="s">
+      <c r="F9" s="15">
+        <v>1.96</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1.46</v>
+      </c>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>1.02</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>1.47</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>4.28</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="35"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="F10" s="15">
+        <v>1.96</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1.43</v>
+      </c>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>1.03</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>1.48</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>4.1500000000000004</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="13" t="s">
+      <c r="F11" s="15">
+        <v>1.96</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1.78</v>
+      </c>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="20">
         <v>1.02</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="20">
         <v>1.47</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="20">
         <v>4.25</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="27" t="s">
+      <c r="F12" s="20">
+        <v>1.97</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1.78</v>
+      </c>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>1.03</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>1.48</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>4.16</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="35"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="F14" s="15">
+        <v>1.97</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>1.2</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>1.46</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>4.16</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="35"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="35"/>
+      <c r="F15" s="15">
+        <v>1.97</v>
+      </c>
+      <c r="G15" s="15">
+        <v>1.81</v>
+      </c>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>1.02</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>1.5</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>4.16</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="35"/>
+      <c r="F17" s="15">
+        <v>1.97</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1.79</v>
+      </c>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="26" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <v>0.84</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>1.26</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>4.24</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="35"/>
+      <c r="F18" s="15">
+        <v>1.96</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1.79</v>
+      </c>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="35"/>
+      <c r="A19" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>1.71</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <v>2.09</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>7.02</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="35"/>
+      <c r="F20" s="15">
+        <v>3.37</v>
+      </c>
+      <c r="G20" s="15">
+        <v>2.82</v>
+      </c>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>3.54</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>2.27</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>10.48</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="35"/>
+      <c r="F21" s="15">
+        <v>6.52</v>
+      </c>
+      <c r="G21" s="15">
+        <v>5.94</v>
+      </c>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>3.38</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <v>2.08</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>10.44</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="35"/>
+      <c r="F22" s="15">
+        <v>6.64</v>
+      </c>
+      <c r="G22" s="15">
+        <v>5.95</v>
+      </c>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="35"/>
+      <c r="A23" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>0.85</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <v>1.25</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>4.16</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="35"/>
+      <c r="F24" s="15">
+        <v>1.96</v>
+      </c>
+      <c r="G24" s="15">
+        <v>1.45</v>
+      </c>
+      <c r="H24" s="26"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="20">
         <v>3.38</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="20">
         <v>2.1</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="20">
         <v>10.27</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="36"/>
+      <c r="F25" s="20">
+        <v>6.61</v>
+      </c>
+      <c r="G25" s="15">
+        <v>5.96</v>
+      </c>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
@@ -1458,391 +1506,1024 @@
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
+      <c r="G26" s="42"/>
       <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="34" t="s">
-        <v>44</v>
+      <c r="A27" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <v>0.87</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="15">
         <v>1.22</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <v>3.79</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="35"/>
+      <c r="F28" s="15">
+        <v>1.72</v>
+      </c>
+      <c r="G28" s="15">
+        <v>1.43</v>
+      </c>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="15">
         <v>0.84</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="15">
         <v>1.22</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="15">
         <v>3.82</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="35"/>
+      <c r="F29" s="15">
+        <v>1.72</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1.44</v>
+      </c>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="35"/>
+      <c r="A30" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
         <v>0.86</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="15">
         <v>1.22</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <v>3.48</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="35"/>
+      <c r="F31" s="15">
+        <v>1.71</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1.86</v>
+      </c>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="15">
         <v>1.0900000000000001</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="15">
         <v>1.44</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <v>3.77</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="35"/>
+      <c r="F32" s="15">
+        <v>1.71</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1.85</v>
+      </c>
+      <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="35"/>
+      <c r="A33" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="26"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="24" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="15">
         <v>1.36</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="15">
         <v>1.52</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>4.96</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="35"/>
+      <c r="F34" s="15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G34" s="15">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H34" s="26"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16">
+      <c r="A35" s="13"/>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15">
         <v>1.44</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="35"/>
+      <c r="E35" s="15"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="25" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="20">
         <v>1.07</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="20">
         <v>1.45</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="20">
         <v>4.22</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="36"/>
+      <c r="F36" s="20">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G36" s="20">
+        <v>2.73</v>
+      </c>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="34" t="s">
-        <v>43</v>
+      <c r="A37" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="13"/>
       <c r="B38" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="15">
         <v>1.03</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="15">
         <v>1.54</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="15">
         <v>9.7899999999999991</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="35"/>
+      <c r="F38" s="15">
+        <v>1.97</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1.49</v>
+      </c>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="13"/>
       <c r="B39" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="15">
         <v>1.32</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="15">
         <v>1.76</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="15">
         <v>14.13</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="35"/>
+      <c r="F39" s="15">
+        <v>2.68</v>
+      </c>
+      <c r="G39" s="15">
+        <v>2.66</v>
+      </c>
+      <c r="H39" s="26"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="27" t="s">
+      <c r="A40" s="13"/>
+      <c r="B40" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="15">
         <v>1.01</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="15">
         <v>1.46</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="15">
         <v>10.95</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="35"/>
+      <c r="F40" s="15">
+        <v>1.97</v>
+      </c>
+      <c r="G40" s="15">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="26" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="15">
         <v>1.02</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="15">
         <v>1.49</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="15">
         <v>9.89</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="35"/>
+      <c r="F41" s="15">
+        <v>1.97</v>
+      </c>
+      <c r="G41" s="15">
+        <v>2.02</v>
+      </c>
+      <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="35"/>
+      <c r="A42" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="24" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="15">
         <v>1.01</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="15">
         <v>1.49</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="15">
         <v>11.43</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="35"/>
+      <c r="F43" s="15">
+        <v>1.97</v>
+      </c>
+      <c r="G43" s="15">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="13"/>
       <c r="B44" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="15">
         <v>1.01</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="15">
         <v>1.47</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="15">
         <v>11.6</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="35"/>
+      <c r="F44" s="15">
+        <v>1.96</v>
+      </c>
+      <c r="G44" s="15">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="35"/>
+      <c r="A45" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="26"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="13"/>
       <c r="B46" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="15">
         <v>1.71</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="15">
         <v>12.37</v>
       </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="35"/>
+      <c r="F46" s="15">
+        <v>3.51</v>
+      </c>
+      <c r="G46" s="15">
+        <v>3.73</v>
+      </c>
+      <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="24" t="s">
+      <c r="A47" s="13"/>
+      <c r="B47" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="15">
         <v>1.25</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="15">
         <v>1.7</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="15">
         <v>14.1</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="35"/>
+      <c r="F47" s="15">
+        <v>2.58</v>
+      </c>
+      <c r="G47" s="15">
+        <v>2.65</v>
+      </c>
+      <c r="H47" s="26"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="13" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="20">
         <v>1.22</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="20">
         <v>1.71</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="20">
         <v>10.77</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="36"/>
+      <c r="F48" s="20">
+        <v>2.25</v>
+      </c>
+      <c r="G48" s="20">
+        <v>2.82</v>
+      </c>
+      <c r="H48" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H2:H12"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="H13:H25"/>
+  <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A13:G13"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A8:G8"/>
     <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A42:G42"/>
     <mergeCell ref="H37:H48"/>
     <mergeCell ref="H27:H36"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="H2:H12"/>
+    <mergeCell ref="H13:H25"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C7">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C12">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C15">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C18">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C22">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C25">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C29">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C32">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C36">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:C41">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:C44">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:C48">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D7">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D12">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D15">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D22">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D25">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:D29">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D32">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D36">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D41">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:D44">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:D48">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E7">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E12">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E15">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E18">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E22">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E25">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E29">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E32">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E36">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E41">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:E44">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E48">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F7">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F18">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F22">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F25">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:F29">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F32">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:F36">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F41">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:F44">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46:F48">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G7">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1854,7 +2535,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C12">
+  <conditionalFormatting sqref="G9:G12">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1866,7 +2547,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C15">
+  <conditionalFormatting sqref="G14:G15">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1878,7 +2559,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1890,7 +2571,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
+  <conditionalFormatting sqref="G20:G22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1902,7 +2583,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C25">
+  <conditionalFormatting sqref="G24:G25">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1914,7 +2595,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29">
+  <conditionalFormatting sqref="G28:G29">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1926,7 +2607,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C32">
+  <conditionalFormatting sqref="G31:G32">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1938,7 +2619,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C36">
+  <conditionalFormatting sqref="G34:G36">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1950,7 +2631,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C41">
+  <conditionalFormatting sqref="G38:G41">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1962,7 +2643,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C44">
+  <conditionalFormatting sqref="G43:G44">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1974,296 +2655,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:C48">
+  <conditionalFormatting sqref="G46:G48">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D7">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D12">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D22">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D25">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D29">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D32">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D36">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D41">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D44">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D48">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E7">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E12">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E22">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E25">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E32">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E36">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E41">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43:E44">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E48">
-    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2294,12 +2687,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2546,16 +2939,16 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43" t="s">
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>

--- a/external/PerfConvert.xlsx
+++ b/external/PerfConvert.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walte\Desktop\Coding\Filling SIMD gaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943DA0AB-3AA3-4998-AA28-E3DEE34174D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41D2C87-6E1A-4698-B3DF-A1F1A88CCDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{9AD7A910-721C-4D20-B2C5-713053ED084B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
   <si>
     <t>O2</t>
   </si>
@@ -236,6 +236,64 @@
     <t>scaleBranch</t>
   </si>
   <si>
+    <t>GCC</t>
+  </si>
+  <si>
+    <t>clang</t>
+  </si>
+  <si>
+    <t>MSVC</t>
+  </si>
+  <si>
+    <t>Intel C</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unsigned int64 =&gt; float 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ryzen 8400f (Zen4)</t>
+    </r>
+  </si>
+  <si>
+    <t>thirdFused</t>
+  </si>
+  <si>
+    <t>thirdFusedA</t>
+  </si>
+  <si>
+    <t>dblHalf2Sum</t>
+  </si>
+  <si>
+    <t>doubleRound</t>
+  </si>
+  <si>
+    <t>thirdFusedSum</t>
+  </si>
+  <si>
+    <t>thirdFusedSumA</t>
+  </si>
+  <si>
+    <t>dblHalfSum</t>
+  </si>
+  <si>
+    <t>dblHalfSumA</t>
+  </si>
+  <si>
+    <t>Alder L.-N</t>
+  </si>
+  <si>
+    <t>Zen4</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">i3-N305
 </t>
@@ -249,15 +307,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Alder L.-N)</t>
+      <t>(Alder Lake-N)</t>
     </r>
+  </si>
+  <si>
+    <t>Goldmount+</t>
+  </si>
+  <si>
+    <t>viaF80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +360,13 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -562,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -604,6 +675,55 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -613,21 +733,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,18 +779,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -993,11 +1122,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0687B78F-8D59-485F-B3CC-BEB04FF791AB}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L37" sqref="L37"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,12 +1134,13 @@
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="15"/>
+    <col min="7" max="7" width="15.42578125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="19" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="16" t="s">
         <v>28</v>
       </c>
@@ -1023,21 +1153,21 @@
       <c r="F1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="41" t="s">
-        <v>47</v>
+      <c r="G1" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="25" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="44" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1061,7 +1191,7 @@
       <c r="G3" s="15">
         <v>2.27</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -1083,7 +1213,7 @@
       <c r="G4" s="15">
         <v>1.83</v>
       </c>
-      <c r="H4" s="26"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -1105,7 +1235,7 @@
       <c r="G5" s="15">
         <v>1.67</v>
       </c>
-      <c r="H5" s="26"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
@@ -1127,7 +1257,7 @@
       <c r="G6" s="15">
         <v>1.83</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -1149,19 +1279,19 @@
       <c r="G7" s="15">
         <v>1.69</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="26"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="45"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
@@ -1183,7 +1313,7 @@
       <c r="G9" s="15">
         <v>1.46</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
@@ -1205,7 +1335,7 @@
       <c r="G10" s="15">
         <v>1.43</v>
       </c>
-      <c r="H10" s="26"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
@@ -1227,7 +1357,7 @@
       <c r="G11" s="15">
         <v>1.78</v>
       </c>
-      <c r="H11" s="26"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
@@ -1249,19 +1379,19 @@
       <c r="G12" s="20">
         <v>1.78</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="25" t="s">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="44" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1285,7 +1415,7 @@
       <c r="G14" s="15">
         <v>1.8</v>
       </c>
-      <c r="H14" s="26"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
@@ -1307,21 +1437,21 @@
       <c r="G15" s="15">
         <v>1.81</v>
       </c>
-      <c r="H15" s="26"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="21" t="s">
         <v>11</v>
@@ -1341,9 +1471,9 @@
       <c r="G17" s="15">
         <v>1.79</v>
       </c>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="23" t="s">
         <v>5</v>
@@ -1363,21 +1493,32 @@
       <c r="G18" s="15">
         <v>1.79</v>
       </c>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="45"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="24" t="s">
         <v>4</v>
@@ -1392,14 +1533,28 @@
         <v>7.02</v>
       </c>
       <c r="F20" s="15">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
       <c r="G20" s="15">
-        <v>2.82</v>
-      </c>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <f>O20/2</f>
+        <v>2.7450000000000001</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="K20" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="40"/>
+      <c r="M20" s="15">
+        <v>18.36</v>
+      </c>
+      <c r="N20" s="15">
+        <v>1.66</v>
+      </c>
+      <c r="O20" s="33">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" t="s">
         <v>13</v>
@@ -1414,540 +1569,1017 @@
         <v>10.48</v>
       </c>
       <c r="F21" s="15">
-        <v>6.52</v>
+        <v>6.66</v>
       </c>
       <c r="G21" s="15">
-        <v>5.94</v>
-      </c>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G21:G28" si="0">O21/2</f>
+        <v>6.625</v>
+      </c>
+      <c r="H21" s="45"/>
+      <c r="K21" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="40"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15">
+        <v>1.98</v>
+      </c>
+      <c r="O21" s="33">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15">
+        <f>N22*1.2</f>
+        <v>4.6319999999999997</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15">
+        <v>6.94</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="0"/>
+        <v>5.9450000000000003</v>
+      </c>
+      <c r="H22" s="45"/>
+      <c r="K22" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="40"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15">
+        <v>3.86</v>
+      </c>
+      <c r="O22" s="33">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15">
+        <f t="shared" ref="D23:D27" si="1">N23*1.2</f>
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15">
+        <v>2.62</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="0"/>
+        <v>5.62</v>
+      </c>
+      <c r="H23" s="45"/>
+      <c r="K23" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="40"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15">
+        <v>3.81</v>
+      </c>
+      <c r="O23" s="33">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15">
+        <f t="shared" si="1"/>
+        <v>3.528</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15">
+        <v>2.69</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="0"/>
+        <v>4.67</v>
+      </c>
+      <c r="H24" s="45"/>
+      <c r="K24" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="40"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15">
+        <v>2.94</v>
+      </c>
+      <c r="O24" s="33">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15">
+        <f t="shared" si="1"/>
+        <v>1.8239999999999998</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15">
+        <v>2.66</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="0"/>
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="H25" s="45"/>
+      <c r="K25" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="40"/>
+      <c r="M25" s="15">
+        <v>14.91</v>
+      </c>
+      <c r="N25" s="15">
+        <v>1.52</v>
+      </c>
+      <c r="O25" s="33">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15">
+        <f t="shared" si="1"/>
+        <v>1.8959999999999999</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="0"/>
+        <v>3.19</v>
+      </c>
+      <c r="H26" s="45"/>
+      <c r="K26" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="40"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15">
+        <v>1.58</v>
+      </c>
+      <c r="O26" s="33">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15">
+        <f t="shared" si="1"/>
+        <v>2.016</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15">
+        <v>3.38</v>
+      </c>
+      <c r="H27" s="45"/>
+      <c r="K27" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="40"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15">
+        <v>1.68</v>
+      </c>
+      <c r="O27" s="33"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C28" s="15">
         <v>3.38</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D28" s="15">
         <v>2.08</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E28" s="15">
         <v>10.44</v>
       </c>
-      <c r="F22" s="15">
-        <v>6.64</v>
-      </c>
-      <c r="G22" s="15">
-        <v>5.95</v>
-      </c>
-      <c r="H22" s="26"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="F28" s="15">
+        <v>6.83</v>
+      </c>
+      <c r="G28" s="15">
+        <f t="shared" si="0"/>
+        <v>5.7149999999999999</v>
+      </c>
+      <c r="H28" s="45"/>
+      <c r="K28" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="42"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20">
+        <v>1.7</v>
+      </c>
+      <c r="O28" s="34">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="26"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="24" t="s">
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C30" s="15">
         <v>0.85</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D30" s="15">
         <v>1.25</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E30" s="15">
         <v>4.16</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F30" s="15">
         <v>1.96</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G30" s="15">
         <v>1.45</v>
       </c>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="12" t="s">
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C31" s="20">
         <v>3.38</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D31" s="20">
         <v>2.1</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E31" s="20">
         <v>10.27</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F31" s="20">
         <v>6.61</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G31" s="15">
         <v>5.96</v>
       </c>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="39"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="H31" s="46"/>
+    </row>
+    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="25" t="s">
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="15">
-        <v>0.87</v>
-      </c>
-      <c r="D28" s="15">
-        <v>1.22</v>
-      </c>
-      <c r="E28" s="15">
-        <v>3.79</v>
-      </c>
-      <c r="F28" s="15">
-        <v>1.72</v>
-      </c>
-      <c r="G28" s="15">
-        <v>1.43</v>
-      </c>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="15">
-        <v>0.84</v>
-      </c>
-      <c r="D29" s="15">
-        <v>1.22</v>
-      </c>
-      <c r="E29" s="15">
-        <v>3.82</v>
-      </c>
-      <c r="F29" s="15">
-        <v>1.72</v>
-      </c>
-      <c r="G29" s="15">
-        <v>1.44</v>
-      </c>
-      <c r="H29" s="26"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="26"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="15">
-        <v>0.86</v>
-      </c>
-      <c r="D31" s="15">
-        <v>1.22</v>
-      </c>
-      <c r="E31" s="15">
-        <v>3.48</v>
-      </c>
-      <c r="F31" s="15">
-        <v>1.71</v>
-      </c>
-      <c r="G31" s="15">
-        <v>1.86</v>
-      </c>
-      <c r="H31" s="26"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="15">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="D32" s="15">
-        <v>1.44</v>
-      </c>
-      <c r="E32" s="15">
-        <v>3.77</v>
-      </c>
-      <c r="F32" s="15">
-        <v>1.71</v>
-      </c>
-      <c r="G32" s="15">
-        <v>1.85</v>
-      </c>
-      <c r="H32" s="26"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="26"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="21" t="s">
-        <v>17</v>
+      <c r="B34" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="C34" s="15">
-        <v>1.36</v>
+        <v>0.87</v>
       </c>
       <c r="D34" s="15">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="E34" s="15">
-        <v>4.96</v>
+        <v>3.79</v>
       </c>
       <c r="F34" s="15">
-        <v>2.5499999999999998</v>
+        <v>1.72</v>
       </c>
       <c r="G34" s="15">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="H34" s="26"/>
+        <v>1.43</v>
+      </c>
+      <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0.84</v>
+      </c>
       <c r="D35" s="15">
+        <v>1.22</v>
+      </c>
+      <c r="E35" s="15">
+        <v>3.82</v>
+      </c>
+      <c r="F35" s="15">
+        <v>1.72</v>
+      </c>
+      <c r="G35" s="15">
         <v>1.44</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="H35" s="26"/>
+      <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="20">
-        <v>1.07</v>
-      </c>
-      <c r="D36" s="20">
-        <v>1.45</v>
-      </c>
-      <c r="E36" s="20">
-        <v>4.22</v>
-      </c>
-      <c r="F36" s="20">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="G36" s="20">
-        <v>2.73</v>
-      </c>
-      <c r="H36" s="27"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="25" t="s">
-        <v>42</v>
-      </c>
+      <c r="A36" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="15">
+        <v>0.86</v>
+      </c>
+      <c r="D37" s="15">
+        <v>1.22</v>
+      </c>
+      <c r="E37" s="15">
+        <v>3.48</v>
+      </c>
+      <c r="F37" s="15">
+        <v>1.71</v>
+      </c>
+      <c r="G37" s="15">
+        <v>1.86</v>
+      </c>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C38" s="15">
-        <v>1.03</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="D38" s="15">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="E38" s="15">
-        <v>9.7899999999999991</v>
+        <v>3.77</v>
       </c>
       <c r="F38" s="15">
-        <v>1.97</v>
+        <v>1.71</v>
       </c>
       <c r="G38" s="15">
-        <v>1.49</v>
-      </c>
-      <c r="H38" s="26"/>
+        <v>1.85</v>
+      </c>
+      <c r="H38" s="45"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="15">
-        <v>1.32</v>
-      </c>
-      <c r="D39" s="15">
-        <v>1.76</v>
-      </c>
-      <c r="E39" s="15">
-        <v>14.13</v>
-      </c>
-      <c r="F39" s="15">
-        <v>2.68</v>
-      </c>
-      <c r="G39" s="15">
-        <v>2.66</v>
-      </c>
-      <c r="H39" s="26"/>
+      <c r="A39" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="45"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
-      <c r="B40" s="24" t="s">
-        <v>11</v>
+      <c r="B40" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C40" s="15">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="D40" s="15">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="E40" s="15">
-        <v>10.95</v>
+        <v>4.96</v>
       </c>
       <c r="F40" s="15">
-        <v>1.97</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G40" s="15">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="H40" s="26"/>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H40" s="45"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
-      <c r="B41" s="23" t="s">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15">
+        <v>1.44</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="H41" s="45"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="15">
-        <v>1.02</v>
-      </c>
-      <c r="D41" s="15">
-        <v>1.49</v>
-      </c>
-      <c r="E41" s="15">
-        <v>9.89</v>
-      </c>
-      <c r="F41" s="15">
-        <v>1.97</v>
-      </c>
-      <c r="G41" s="15">
-        <v>2.02</v>
-      </c>
-      <c r="H41" s="26"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="26"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="15">
-        <v>1.01</v>
-      </c>
-      <c r="D43" s="15">
-        <v>1.49</v>
-      </c>
-      <c r="E43" s="15">
-        <v>11.43</v>
-      </c>
-      <c r="F43" s="15">
-        <v>1.97</v>
-      </c>
-      <c r="G43" s="15">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="H43" s="26"/>
+      <c r="C42" s="20">
+        <v>1.07</v>
+      </c>
+      <c r="D42" s="20">
+        <v>1.45</v>
+      </c>
+      <c r="E42" s="20">
+        <v>4.22</v>
+      </c>
+      <c r="F42" s="20">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G42" s="20">
+        <v>2.73</v>
+      </c>
+      <c r="H42" s="46"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="44" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C44" s="15">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="D44" s="15">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="E44" s="15">
-        <v>11.6</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="F44" s="15">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G44" s="15">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="H44" s="26"/>
+        <v>1.49</v>
+      </c>
+      <c r="H44" s="45"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="26"/>
+      <c r="A45" s="13"/>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="15">
+        <v>1.32</v>
+      </c>
+      <c r="D45" s="15">
+        <v>1.76</v>
+      </c>
+      <c r="E45" s="15">
+        <v>14.13</v>
+      </c>
+      <c r="F45" s="15">
+        <v>2.68</v>
+      </c>
+      <c r="G45" s="15">
+        <v>2.66</v>
+      </c>
+      <c r="H45" s="45"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
-      <c r="B46" t="s">
-        <v>16</v>
+      <c r="B46" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="C46" s="15">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="D46" s="15">
-        <v>2.2999999999999998</v>
+        <v>1.46</v>
       </c>
       <c r="E46" s="15">
-        <v>12.37</v>
+        <v>10.95</v>
       </c>
       <c r="F46" s="15">
-        <v>3.51</v>
+        <v>1.97</v>
       </c>
       <c r="G46" s="15">
-        <v>3.73</v>
-      </c>
-      <c r="H46" s="26"/>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="15">
+        <v>1.02</v>
+      </c>
+      <c r="D47" s="15">
+        <v>1.49</v>
+      </c>
+      <c r="E47" s="15">
+        <v>9.89</v>
+      </c>
+      <c r="F47" s="15">
+        <v>1.97</v>
+      </c>
+      <c r="G47" s="15">
+        <v>2.02</v>
+      </c>
+      <c r="H47" s="45"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="45"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="15">
+        <v>1.01</v>
+      </c>
+      <c r="D49" s="15">
+        <v>1.49</v>
+      </c>
+      <c r="E49" s="15">
+        <v>11.43</v>
+      </c>
+      <c r="F49" s="15">
+        <v>1.97</v>
+      </c>
+      <c r="G49" s="15">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H49" s="45"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="15">
+        <v>1.01</v>
+      </c>
+      <c r="D50" s="15">
+        <v>1.47</v>
+      </c>
+      <c r="E50" s="15">
+        <v>11.6</v>
+      </c>
+      <c r="F50" s="15">
+        <v>1.96</v>
+      </c>
+      <c r="G50" s="15">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H50" s="45"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="45"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="15">
+        <v>1.71</v>
+      </c>
+      <c r="D52" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E52" s="15">
+        <v>12.37</v>
+      </c>
+      <c r="F52" s="15">
+        <v>3.51</v>
+      </c>
+      <c r="G52" s="15">
+        <v>3.73</v>
+      </c>
+      <c r="H52" s="45"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C53" s="15">
         <v>1.25</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D53" s="15">
         <v>1.7</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E53" s="15">
         <v>14.1</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F53" s="15">
         <v>2.58</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G53" s="15">
         <v>2.65</v>
       </c>
-      <c r="H47" s="26"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="12" t="s">
+      <c r="H53" s="45"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C54" s="20">
         <v>1.22</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D54" s="20">
         <v>1.71</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E54" s="20">
         <v>10.77</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F54" s="20">
         <v>2.25</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G54" s="20">
         <v>2.82</v>
       </c>
-      <c r="H48" s="27"/>
+      <c r="H54" s="46"/>
+    </row>
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="53"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="54"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="56"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="32"/>
+      <c r="C61" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="15">
+        <v>1.64</v>
+      </c>
+      <c r="D62" s="15">
+        <v>1.53</v>
+      </c>
+      <c r="E62" s="15">
+        <v>1.53</v>
+      </c>
+      <c r="F62" s="33">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="15">
+        <v>1.96</v>
+      </c>
+      <c r="D63" s="15">
+        <v>1.86</v>
+      </c>
+      <c r="E63" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="F63" s="33">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="15">
+        <v>3.78</v>
+      </c>
+      <c r="D64" s="15">
+        <v>3.55</v>
+      </c>
+      <c r="E64" s="15">
+        <v>3.94</v>
+      </c>
+      <c r="F64" s="33">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="15">
+        <v>3.76</v>
+      </c>
+      <c r="D65" s="15">
+        <v>3.21</v>
+      </c>
+      <c r="E65" s="15">
+        <v>3.35</v>
+      </c>
+      <c r="F65" s="33">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="15">
+        <v>2.88</v>
+      </c>
+      <c r="D66" s="15">
+        <v>2.59</v>
+      </c>
+      <c r="E66" s="15">
+        <v>3.61</v>
+      </c>
+      <c r="F66" s="33">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="15">
+        <v>1.51</v>
+      </c>
+      <c r="D67" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="E67" s="15">
+        <v>1.57</v>
+      </c>
+      <c r="F67" s="33">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="20">
+        <v>1.7</v>
+      </c>
+      <c r="D68" s="20">
+        <v>1.69</v>
+      </c>
+      <c r="E68" s="20">
+        <v>1.91</v>
+      </c>
+      <c r="F68" s="34">
+        <v>1.97</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="B59:F60"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="H43:H54"/>
+    <mergeCell ref="H33:H42"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H2:H12"/>
+    <mergeCell ref="H13:H31"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A27:G27"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="H37:H48"/>
-    <mergeCell ref="H27:H36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="H2:H12"/>
-    <mergeCell ref="H13:H25"/>
+    <mergeCell ref="A29:G29"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C7">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C12">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C15">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C18">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C28">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:C31">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C35">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C42">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44:C47">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:C50">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -1959,7 +2591,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C12">
+  <conditionalFormatting sqref="C52:C54">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -1971,7 +2603,331 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C15">
+  <conditionalFormatting sqref="C62:C68">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D7">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D12">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D15">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D28">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D31">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D35">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:D38">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D42">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D47">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:D54">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D68">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E7">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E12">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E15">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E18">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E28">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E31">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E35">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:E38">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40:E42">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:E47">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:E50">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:E54">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E68">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F7">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -1983,7 +2939,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
+  <conditionalFormatting sqref="F9:F12">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -1995,7 +2951,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
+  <conditionalFormatting sqref="F14:F15">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -2007,7 +2963,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C25">
+  <conditionalFormatting sqref="F17:F18">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -2019,19 +2975,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C32">
+  <conditionalFormatting sqref="F30:F31">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -2043,7 +2987,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C36">
+  <conditionalFormatting sqref="F34:F35">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2055,7 +2999,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C41">
+  <conditionalFormatting sqref="F37:F38">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2067,7 +3011,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C44">
+  <conditionalFormatting sqref="F40:F42">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2079,7 +3023,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:C48">
+  <conditionalFormatting sqref="F44:F47">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2091,295 +3035,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D7">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D12">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D22">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D25">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D29">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D32">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D36">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D41">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D44">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D48">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E7">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E12">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E22">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E25">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E32">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E36">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E41">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43:E44">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E48">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F7">
+  <conditionalFormatting sqref="F49:F50">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2391,7 +3047,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
+  <conditionalFormatting sqref="F52:F54">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2403,7 +3059,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
+  <conditionalFormatting sqref="F62:F68">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G7">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2415,7 +3083,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F18">
+  <conditionalFormatting sqref="G9:G12">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2427,7 +3095,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F22">
+  <conditionalFormatting sqref="G14:G15">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2439,7 +3107,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F25">
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2451,7 +3119,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F29">
+  <conditionalFormatting sqref="G20:G28">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2463,7 +3131,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F32">
+  <conditionalFormatting sqref="G30:G31">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2475,7 +3143,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F36">
+  <conditionalFormatting sqref="G34:G35">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2487,7 +3155,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F41">
+  <conditionalFormatting sqref="G37:G38">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2499,7 +3167,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F44">
+  <conditionalFormatting sqref="G40:G42">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2511,7 +3179,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:F48">
+  <conditionalFormatting sqref="G44:G47">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2523,7 +3191,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G7">
+  <conditionalFormatting sqref="G49:G50">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2535,7 +3203,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G12">
+  <conditionalFormatting sqref="G52:G54">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2547,55 +3215,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G18">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G22">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:G29">
+  <conditionalFormatting sqref="M20:M28">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20:N28">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20:O28">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2607,55 +3251,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G32">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34:G36">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38:G41">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43:G44">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46:G48">
+  <conditionalFormatting sqref="F20:F28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2668,6 +3264,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2676,7 +3273,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2687,12 +3284,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2939,16 +3536,16 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36" t="s">
+      <c r="H26" s="60"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
